--- a/Assets/StreamingAssets/GameData/GameScript.xlsx
+++ b/Assets/StreamingAssets/GameData/GameScript.xlsx
@@ -48,14 +48,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,148 +504,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,7 +976,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1000,16 +993,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="56" customHeight="1" spans="1:2">
+    <row r="2" ht="56" customHeight="1" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/GameData/GameScript.xlsx
+++ b/Assets/StreamingAssets/GameData/GameScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>天数</t>
+    <t>事件</t>
   </si>
   <si>
-    <t>事件</t>
+    <t>注释</t>
   </si>
   <si>
     <t>If-{Bigger-{float-5}-{Inventory-Player-1}}-{Book-"testB1"}-{Book-"testB2"}</t>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -504,19 +504,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,202 +973,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="60" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="64.8666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6083333333333" customWidth="1"/>
+    <col min="4" max="16384" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="56" customHeight="1" spans="1:1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="2" ht="21" customHeight="1"/>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
